--- a/public/template/油脂化验指标.xlsx
+++ b/public/template/油脂化验指标.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11700"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>设备编号</t>
   </si>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -308,74 +308,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -384,7 +321,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="535353"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -665,11 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,37 +743,37 @@
         <v>100</v>
       </c>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6">
-        <v>42739</v>
+        <v>42740</v>
       </c>
       <c r="F4" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.5</v>
+        <v>3.69</v>
       </c>
       <c r="H4" s="1">
-        <v>0.02</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="J4" s="1">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="K4" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L4" s="3">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75">
@@ -844,37 +781,37 @@
         <v>100</v>
       </c>
       <c r="B5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6">
-        <v>42740</v>
+        <v>42741</v>
       </c>
       <c r="F5" s="1">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="G5" s="1">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="H5" s="1">
-        <v>1.1599999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="I5" s="1">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="J5" s="1">
-        <v>1.88</v>
+        <v>2.46</v>
       </c>
       <c r="K5" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L5" s="3">
-        <v>15.9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75">
@@ -882,37 +819,37 @@
         <v>100</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6">
-        <v>42741</v>
+        <v>42742</v>
       </c>
       <c r="F6" s="1">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="G6" s="1">
-        <v>3.78</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>3.08</v>
+        <v>1.88</v>
       </c>
       <c r="J6" s="1">
-        <v>2.46</v>
+        <v>3.07</v>
       </c>
       <c r="K6" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L6" s="3">
-        <v>16</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75">
@@ -920,37 +857,37 @@
         <v>100</v>
       </c>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
-        <v>42742</v>
+        <v>42743</v>
       </c>
       <c r="F7" s="1">
-        <v>1.91</v>
+        <v>1.56</v>
       </c>
       <c r="G7" s="1">
-        <v>1.1299999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="J7" s="1">
-        <v>3.07</v>
+        <v>0.73</v>
       </c>
       <c r="K7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L7" s="3">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75">
@@ -958,37 +895,37 @@
         <v>100</v>
       </c>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6">
-        <v>42743</v>
+        <v>42744</v>
       </c>
       <c r="F8" s="1">
-        <v>1.56</v>
+        <v>0.69</v>
       </c>
       <c r="G8" s="1">
-        <v>0.39</v>
+        <v>2.15</v>
       </c>
       <c r="H8" s="1">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>5.8</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.73</v>
+        <v>1.7</v>
       </c>
       <c r="K8" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75">
@@ -996,7 +933,7 @@
         <v>100</v>
       </c>
       <c r="B9" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -1005,22 +942,22 @@
         <v>19</v>
       </c>
       <c r="E9" s="6">
-        <v>42744</v>
+        <v>42745</v>
       </c>
       <c r="F9" s="1">
-        <v>0.69</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>2.15</v>
+        <v>0.99</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="I9" s="1">
-        <v>2.4500000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="J9" s="1">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1034,37 +971,37 @@
         <v>100</v>
       </c>
       <c r="B10" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6">
-        <v>42745</v>
+        <v>42746</v>
       </c>
       <c r="F10" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="G10" s="1">
-        <v>0.99</v>
+        <v>0.22</v>
       </c>
       <c r="H10" s="1">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>2.8</v>
+        <v>1.22</v>
       </c>
       <c r="J10" s="1">
-        <v>1.73</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>15.2</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
@@ -1072,37 +1009,37 @@
         <v>100</v>
       </c>
       <c r="B11" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6">
-        <v>42746</v>
+        <v>42747</v>
       </c>
       <c r="F11" s="1">
-        <v>1.37</v>
+        <v>0.94</v>
       </c>
       <c r="G11" s="1">
-        <v>0.22</v>
+        <v>0.93</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="1">
-        <v>1.22</v>
+        <v>5.8</v>
       </c>
       <c r="J11" s="1">
-        <v>2.1800000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="3">
-        <v>16.100000000000001</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75">
@@ -1110,37 +1047,37 @@
         <v>100</v>
       </c>
       <c r="B12" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6">
-        <v>42747</v>
+        <v>42748</v>
       </c>
       <c r="F12" s="1">
-        <v>0.94</v>
+        <v>4.29</v>
       </c>
       <c r="G12" s="1">
-        <v>0.93</v>
+        <v>0.59</v>
       </c>
       <c r="H12" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>5.8</v>
+        <v>11.36</v>
       </c>
       <c r="J12" s="1">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="K12" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>31.2</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75">
@@ -1148,37 +1085,37 @@
         <v>100</v>
       </c>
       <c r="B13" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6">
-        <v>42748</v>
+        <v>42749</v>
       </c>
       <c r="F13" s="1">
-        <v>4.29</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G13" s="1">
-        <v>0.59</v>
+        <v>1.48</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="I13" s="1">
-        <v>11.36</v>
+        <v>3.04</v>
       </c>
       <c r="J13" s="1">
-        <v>2.72</v>
+        <v>3.33</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>16.7</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75">
@@ -1186,37 +1123,37 @@
         <v>100</v>
       </c>
       <c r="B14" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6">
-        <v>42749</v>
+        <v>42750</v>
       </c>
       <c r="F14" s="1">
-        <v>2.2799999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="G14" s="1">
-        <v>1.48</v>
+        <v>4.18</v>
       </c>
       <c r="H14" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>3.04</v>
+        <v>0.61</v>
       </c>
       <c r="J14" s="1">
-        <v>3.33</v>
+        <v>1.71</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>17.3</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75">
@@ -1224,37 +1161,37 @@
         <v>100</v>
       </c>
       <c r="B15" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6">
-        <v>42750</v>
+        <v>42751</v>
       </c>
       <c r="F15" s="1">
-        <v>0.37</v>
+        <v>3.63</v>
       </c>
       <c r="G15" s="1">
-        <v>4.18</v>
+        <v>0.82</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="J15" s="1">
-        <v>1.71</v>
+        <v>18.41</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>15.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
@@ -1262,37 +1199,37 @@
         <v>100</v>
       </c>
       <c r="B16" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6">
-        <v>42751</v>
+        <v>42752</v>
       </c>
       <c r="F16" s="1">
-        <v>3.63</v>
+        <v>0.44</v>
       </c>
       <c r="G16" s="1">
-        <v>0.82</v>
+        <v>1.18</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>0.65</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>18.41</v>
+        <v>0.36</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="3">
-        <v>15</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75">
@@ -1300,75 +1237,75 @@
         <v>100</v>
       </c>
       <c r="B17" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="6">
-        <v>42752</v>
+        <v>42753</v>
       </c>
       <c r="F17" s="1">
-        <v>0.44</v>
+        <v>5.27</v>
       </c>
       <c r="G17" s="1">
-        <v>1.18</v>
+        <v>2.36</v>
       </c>
       <c r="H17" s="1">
-        <v>0.28000000000000003</v>
+        <v>10.18</v>
       </c>
       <c r="I17" s="1">
-        <v>0.28999999999999998</v>
+        <v>18.28</v>
       </c>
       <c r="J17" s="1">
-        <v>0.36</v>
+        <v>1.89</v>
       </c>
       <c r="K17" s="2">
         <v>5</v>
       </c>
       <c r="L17" s="3">
-        <v>45.5</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B18" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="6">
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="F18" s="1">
-        <v>5.27</v>
+        <v>2.94</v>
       </c>
       <c r="G18" s="1">
-        <v>2.36</v>
+        <v>1.21</v>
       </c>
       <c r="H18" s="1">
-        <v>10.18</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>18.28</v>
+        <v>0.62</v>
       </c>
       <c r="J18" s="1">
-        <v>1.89</v>
+        <v>2.93</v>
       </c>
       <c r="K18" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L18" s="3">
-        <v>47.2</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75">
@@ -1376,37 +1313,37 @@
         <v>200</v>
       </c>
       <c r="B19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6">
-        <v>42754</v>
+        <v>42755</v>
       </c>
       <c r="F19" s="1">
-        <v>2.94</v>
+        <v>0.79</v>
       </c>
       <c r="G19" s="1">
-        <v>1.21</v>
+        <v>7.21</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0.62</v>
+        <v>1.99</v>
       </c>
       <c r="J19" s="1">
-        <v>2.93</v>
+        <v>2.15</v>
       </c>
       <c r="K19" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>15.9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75">
@@ -1414,37 +1351,37 @@
         <v>200</v>
       </c>
       <c r="B20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="6">
-        <v>42755</v>
+        <v>42756</v>
       </c>
       <c r="F20" s="1">
-        <v>0.79</v>
+        <v>3.16</v>
       </c>
       <c r="G20" s="1">
-        <v>7.21</v>
+        <v>0.71</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="J20" s="1">
-        <v>2.15</v>
+        <v>7.47</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>17</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75">
@@ -1452,37 +1389,37 @@
         <v>200</v>
       </c>
       <c r="B21" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="6">
-        <v>42756</v>
+        <v>42757</v>
       </c>
       <c r="F21" s="1">
-        <v>3.16</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="1">
-        <v>0.71</v>
+        <v>2.83</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>1.8</v>
+        <v>2.73</v>
       </c>
       <c r="J21" s="1">
-        <v>7.47</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75">
@@ -1490,37 +1427,37 @@
         <v>200</v>
       </c>
       <c r="B22" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="6">
-        <v>42757</v>
+        <v>42758</v>
       </c>
       <c r="F22" s="1">
-        <v>0.5</v>
+        <v>5.58</v>
       </c>
       <c r="G22" s="1">
-        <v>2.83</v>
+        <v>1.31</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I22" s="1">
-        <v>2.73</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J22" s="1">
-        <v>1.1599999999999999</v>
+        <v>120.18</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>16.2</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75">
@@ -1528,37 +1465,37 @@
         <v>200</v>
       </c>
       <c r="B23" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="6">
-        <v>42758</v>
+        <v>42759</v>
       </c>
       <c r="F23" s="1">
-        <v>5.58</v>
+        <v>0.9</v>
       </c>
       <c r="G23" s="1">
-        <v>1.31</v>
+        <v>4.2</v>
       </c>
       <c r="H23" s="1">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>4.5199999999999996</v>
+        <v>3.71</v>
       </c>
       <c r="J23" s="1">
-        <v>120.18</v>
+        <v>1.82</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>16.399999999999999</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75">
@@ -1566,37 +1503,37 @@
         <v>200</v>
       </c>
       <c r="B24" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="6">
-        <v>42759</v>
+        <v>42760</v>
       </c>
       <c r="F24" s="1">
-        <v>0.9</v>
+        <v>1.52</v>
       </c>
       <c r="G24" s="1">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>3.71</v>
+        <v>7.31</v>
       </c>
       <c r="J24" s="1">
-        <v>1.82</v>
+        <v>3.98</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>30.2</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75">
@@ -1604,37 +1541,37 @@
         <v>200</v>
       </c>
       <c r="B25" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="6">
-        <v>42760</v>
+        <v>42761</v>
       </c>
       <c r="F25" s="1">
-        <v>1.52</v>
+        <v>7.01</v>
       </c>
       <c r="G25" s="1">
-        <v>7.8</v>
+        <v>1.33</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I25" s="1">
-        <v>7.31</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>3.98</v>
+        <v>6.12</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75">
@@ -1642,7 +1579,7 @@
         <v>200</v>
       </c>
       <c r="B26" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>28</v>
@@ -1651,22 +1588,22 @@
         <v>35</v>
       </c>
       <c r="E26" s="6">
-        <v>42761</v>
+        <v>42762</v>
       </c>
       <c r="F26" s="1">
-        <v>7.01</v>
+        <v>0.4</v>
       </c>
       <c r="G26" s="1">
-        <v>1.33</v>
+        <v>0.42</v>
       </c>
       <c r="H26" s="1">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0900000000000001</v>
+        <v>2.27</v>
       </c>
       <c r="J26" s="1">
-        <v>6.12</v>
+        <v>1.91</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -1680,37 +1617,37 @@
         <v>200</v>
       </c>
       <c r="B27" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" s="6">
-        <v>42762</v>
+        <v>42763</v>
       </c>
       <c r="F27" s="1">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="G27" s="1">
-        <v>0.42</v>
+        <v>0.83</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I27" s="1">
-        <v>2.27</v>
+        <v>5.05</v>
       </c>
       <c r="J27" s="1">
-        <v>1.91</v>
+        <v>3.31</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>16.5</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75">
@@ -1718,37 +1655,37 @@
         <v>200</v>
       </c>
       <c r="B28" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="6">
-        <v>42763</v>
+        <v>42764</v>
       </c>
       <c r="F28" s="1">
-        <v>6.1</v>
+        <v>1.24</v>
       </c>
       <c r="G28" s="1">
-        <v>0.83</v>
+        <v>1.07</v>
       </c>
       <c r="H28" s="1">
-        <v>0.02</v>
+        <v>1.03</v>
       </c>
       <c r="I28" s="1">
-        <v>5.05</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1">
-        <v>3.31</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>17.7</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75">
@@ -1756,37 +1693,37 @@
         <v>200</v>
       </c>
       <c r="B29" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6">
-        <v>42764</v>
+        <v>42765</v>
       </c>
       <c r="F29" s="1">
-        <v>1.24</v>
+        <v>0.42</v>
       </c>
       <c r="G29" s="1">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="H29" s="1">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>15</v>
+        <v>20.28</v>
       </c>
       <c r="J29" s="1">
-        <v>1.1399999999999999</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>47.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75">
@@ -1794,37 +1731,37 @@
         <v>200</v>
       </c>
       <c r="B30" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6">
-        <v>42765</v>
+        <v>42766</v>
       </c>
       <c r="F30" s="1">
-        <v>0.42</v>
+        <v>2.12</v>
       </c>
       <c r="G30" s="1">
-        <v>1.02</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>20.28</v>
+        <v>2.54</v>
       </c>
       <c r="J30" s="1">
-        <v>2.1800000000000002</v>
+        <v>2.58</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>11</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75">
@@ -1832,37 +1769,37 @@
         <v>200</v>
       </c>
       <c r="B31" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" s="6">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="F31" s="1">
-        <v>2.12</v>
+        <v>4.87</v>
       </c>
       <c r="G31" s="1">
-        <v>0.55000000000000004</v>
+        <v>6.92</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="I31" s="1">
-        <v>2.54</v>
+        <v>3.09</v>
       </c>
       <c r="J31" s="1">
-        <v>2.58</v>
+        <v>0.22</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>14.4</v>
+        <v>404.6</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75">
@@ -1870,37 +1807,37 @@
         <v>200</v>
       </c>
       <c r="B32" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="6">
-        <v>42767</v>
+        <v>42768</v>
       </c>
       <c r="F32" s="1">
-        <v>4.87</v>
+        <v>4.75</v>
       </c>
       <c r="G32" s="1">
-        <v>6.92</v>
+        <v>3.9</v>
       </c>
       <c r="H32" s="1">
-        <v>0.59</v>
+        <v>110.91</v>
       </c>
       <c r="I32" s="1">
-        <v>3.09</v>
+        <v>7.53</v>
       </c>
       <c r="J32" s="1">
-        <v>0.22</v>
+        <v>3.3</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>404.6</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75">
@@ -1908,37 +1845,37 @@
         <v>200</v>
       </c>
       <c r="B33" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="6">
-        <v>42768</v>
+        <v>42769</v>
       </c>
       <c r="F33" s="1">
-        <v>4.75</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="1">
-        <v>3.9</v>
+        <v>2.83</v>
       </c>
       <c r="H33" s="1">
-        <v>110.91</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>7.53</v>
+        <v>2.73</v>
       </c>
       <c r="J33" s="1">
-        <v>3.3</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>11.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75">
@@ -1946,74 +1883,36 @@
         <v>200</v>
       </c>
       <c r="B34" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6">
-        <v>42769</v>
+        <v>42770</v>
       </c>
       <c r="F34" s="1">
-        <v>0.5</v>
+        <v>5.58</v>
       </c>
       <c r="G34" s="1">
-        <v>2.83</v>
+        <v>1.31</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I34" s="1">
-        <v>2.73</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J34" s="1">
-        <v>1.1599999999999999</v>
+        <v>120.18</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75">
-      <c r="A35" s="5">
-        <v>200</v>
-      </c>
-      <c r="B35" s="5">
-        <v>17</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="6">
-        <v>42770</v>
-      </c>
-      <c r="F35" s="1">
-        <v>5.58</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1.31</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="I35" s="1">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="J35" s="1">
-        <v>120.18</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
         <v>16.399999999999999</v>
       </c>
     </row>
